--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Dll1-Notch4.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Dll1-Notch4.xlsx
@@ -528,22 +528,22 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>10.34874566666667</v>
+        <v>8.324917666666666</v>
       </c>
       <c r="H2">
-        <v>31.046237</v>
+        <v>24.974753</v>
       </c>
       <c r="I2">
-        <v>0.614862320492409</v>
+        <v>0.8193616330571973</v>
       </c>
       <c r="J2">
-        <v>0.6148623204924089</v>
+        <v>0.8193616330571972</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>29.546424</v>
+        <v>31.61061466666667</v>
       </c>
       <c r="N2">
-        <v>88.63927200000001</v>
+        <v>94.831844</v>
       </c>
       <c r="O2">
-        <v>0.9033225104610835</v>
+        <v>0.8860472269592234</v>
       </c>
       <c r="P2">
-        <v>0.9033225104610834</v>
+        <v>0.8860472269592234</v>
       </c>
       <c r="Q2">
-        <v>305.768427335496</v>
+        <v>263.1557644927258</v>
       </c>
       <c r="R2">
-        <v>2751.915846019464</v>
+        <v>2368.401880434532</v>
       </c>
       <c r="S2">
-        <v>0.5554189749351301</v>
+        <v>0.7259931028471105</v>
       </c>
       <c r="T2">
-        <v>0.55541897493513</v>
+        <v>0.7259931028471104</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,22 +590,22 @@
         <v>24</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>10.34874566666667</v>
+        <v>8.324917666666666</v>
       </c>
       <c r="H3">
-        <v>31.046237</v>
+        <v>24.974753</v>
       </c>
       <c r="I3">
-        <v>0.614862320492409</v>
+        <v>0.8193616330571973</v>
       </c>
       <c r="J3">
-        <v>0.6148623204924089</v>
+        <v>0.8193616330571972</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>5.018356000000001</v>
       </c>
       <c r="O3">
-        <v>0.05114204841740398</v>
+        <v>0.04688826274109129</v>
       </c>
       <c r="P3">
-        <v>0.05114204841740398</v>
+        <v>0.04688826274109129</v>
       </c>
       <c r="Q3">
-        <v>17.31122996959689</v>
+        <v>13.92580017400756</v>
       </c>
       <c r="R3">
-        <v>155.801069726372</v>
+        <v>125.332201566068</v>
       </c>
       <c r="S3">
-        <v>0.03144531856466014</v>
+        <v>0.0384184435307555</v>
       </c>
       <c r="T3">
-        <v>0.03144531856466014</v>
+        <v>0.03841844353075549</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,22 +652,22 @@
         <v>21</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>10.34874566666667</v>
+        <v>8.324917666666666</v>
       </c>
       <c r="H4">
-        <v>31.046237</v>
+        <v>24.974753</v>
       </c>
       <c r="I4">
-        <v>0.614862320492409</v>
+        <v>0.8193616330571973</v>
       </c>
       <c r="J4">
-        <v>0.6148623204924089</v>
+        <v>0.8193616330571972</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -676,28 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>1.489401</v>
+        <v>2.392593</v>
       </c>
       <c r="N4">
-        <v>4.468203</v>
+        <v>7.177778999999999</v>
       </c>
       <c r="O4">
-        <v>0.04553544112151264</v>
+        <v>0.06706451029968528</v>
       </c>
       <c r="P4">
-        <v>0.04553544112151264</v>
+        <v>0.06706451029968527</v>
       </c>
       <c r="Q4">
-        <v>15.413432144679</v>
+        <v>19.918139734843</v>
       </c>
       <c r="R4">
-        <v>138.720889302111</v>
+        <v>179.263257613587</v>
       </c>
       <c r="S4">
-        <v>0.02799802699261873</v>
+        <v>0.05495008667933136</v>
       </c>
       <c r="T4">
-        <v>0.02799802699261872</v>
+        <v>0.05495008667933134</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,16 +720,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>6.482251000000001</v>
+        <v>1.835330666666667</v>
       </c>
       <c r="H5">
-        <v>19.446753</v>
+        <v>5.505992</v>
       </c>
       <c r="I5">
-        <v>0.3851376795075911</v>
+        <v>0.1806383669428028</v>
       </c>
       <c r="J5">
-        <v>0.385137679507591</v>
+        <v>0.1806383669428027</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>29.546424</v>
+        <v>31.61061466666667</v>
       </c>
       <c r="N5">
-        <v>88.63927200000001</v>
+        <v>94.831844</v>
       </c>
       <c r="O5">
-        <v>0.9033225104610835</v>
+        <v>0.8860472269592234</v>
       </c>
       <c r="P5">
-        <v>0.9033225104610834</v>
+        <v>0.8860472269592234</v>
       </c>
       <c r="Q5">
-        <v>191.527336520424</v>
+        <v>58.01593048991644</v>
       </c>
       <c r="R5">
-        <v>1723.746028683816</v>
+        <v>522.1433744092481</v>
       </c>
       <c r="S5">
-        <v>0.3479035355259534</v>
+        <v>0.1600541241121131</v>
       </c>
       <c r="T5">
-        <v>0.3479035355259533</v>
+        <v>0.160054124112113</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,16 +782,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>6.482251000000001</v>
+        <v>1.835330666666667</v>
       </c>
       <c r="H6">
-        <v>19.446753</v>
+        <v>5.505992</v>
       </c>
       <c r="I6">
-        <v>0.3851376795075911</v>
+        <v>0.1806383669428028</v>
       </c>
       <c r="J6">
-        <v>0.385137679507591</v>
+        <v>0.1806383669428027</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,22 +806,22 @@
         <v>5.018356000000001</v>
       </c>
       <c r="O6">
-        <v>0.05114204841740398</v>
+        <v>0.04688826274109129</v>
       </c>
       <c r="P6">
-        <v>0.05114204841740398</v>
+        <v>0.04688826274109129</v>
       </c>
       <c r="Q6">
-        <v>10.84341439978534</v>
+        <v>3.070114221016889</v>
       </c>
       <c r="R6">
-        <v>97.59072959806802</v>
+        <v>27.631027989152</v>
       </c>
       <c r="S6">
-        <v>0.01969672985274384</v>
+        <v>0.008469819210335796</v>
       </c>
       <c r="T6">
-        <v>0.01969672985274384</v>
+        <v>0.008469819210335794</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -844,16 +844,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>6.482251000000001</v>
+        <v>1.835330666666667</v>
       </c>
       <c r="H7">
-        <v>19.446753</v>
+        <v>5.505992</v>
       </c>
       <c r="I7">
-        <v>0.3851376795075911</v>
+        <v>0.1806383669428028</v>
       </c>
       <c r="J7">
-        <v>0.385137679507591</v>
+        <v>0.1806383669428027</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -862,28 +862,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>1.489401</v>
+        <v>2.392593</v>
       </c>
       <c r="N7">
-        <v>4.468203</v>
+        <v>7.177778999999999</v>
       </c>
       <c r="O7">
-        <v>0.04553544112151264</v>
+        <v>0.06706451029968528</v>
       </c>
       <c r="P7">
-        <v>0.04553544112151264</v>
+        <v>0.06706451029968527</v>
       </c>
       <c r="Q7">
-        <v>9.654671121651001</v>
+        <v>4.391199305751999</v>
       </c>
       <c r="R7">
-        <v>86.892040094859</v>
+        <v>39.520793751768</v>
       </c>
       <c r="S7">
-        <v>0.01753741412889392</v>
+        <v>0.01211442362035393</v>
       </c>
       <c r="T7">
-        <v>0.01753741412889391</v>
+        <v>0.01211442362035392</v>
       </c>
     </row>
   </sheetData>
